--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -17,10 +17,10 @@
     <t>pBV.vs.SUCRA</t>
   </si>
   <si>
-    <t>pBV.vs.ATE</t>
+    <t>SUCRA.vs.ATE</t>
   </si>
   <si>
-    <t>SUCRA.vs.ATE</t>
+    <t>pBV.vs.ATE</t>
   </si>
   <si>
     <t>Spearman rho</t>
@@ -35,40 +35,40 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.964)</t>
+    <t>0.9 (0.8, 0.96)</t>
   </si>
   <si>
-    <t>0.8 (0.681, 0.913)</t>
+    <t>0.8 (0.69, 0.91)</t>
   </si>
   <si>
-    <t>0.778 (0.623, 0.9)</t>
+    <t>0.79 (0.63, 0.9)</t>
   </si>
   <si>
-    <t>0.278 (0.111, 0.611)</t>
+    <t>0.86 (0.77, 1)</t>
   </si>
   <si>
-    <t>0.144 (-0.0818, 0.371)</t>
+    <t>0.14 (-0.055, 0.3)</t>
   </si>
   <si>
-    <t>0.0673 (-0.0667, 0.255)</t>
+    <t>0.029 (-0.059, 0.2)</t>
   </si>
   <si>
-    <t>0.0274 (-0.167, 0.222)</t>
+    <t>0.022 (-0.1, 0.22)</t>
   </si>
   <si>
-    <t>0.125 (0.0618, 0.271)</t>
+    <t>0.33 (0.21, 0.41)</t>
   </si>
   <si>
-    <t>0.143 (-0.0659, 0.3)</t>
+    <t>0.14 (-0.061, 0.38)</t>
   </si>
   <si>
-    <t>0.019 (-0.0667, 0.2)</t>
+    <t>0.085 (-0.056, 0.28)</t>
   </si>
   <si>
-    <t>0.0278 (-0.119, 0.222)</t>
+    <t>0.037 (-0.13, 0.22)</t>
   </si>
   <si>
-    <t>0.208 (0.111, 0.389)</t>
+    <t>0.33 (0.21, 0.42)</t>
   </si>
 </sst>
 </file>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -35,40 +35,40 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.96)</t>
+    <t>0.9 (0.8, 0.97)</t>
   </si>
   <si>
-    <t>0.8 (0.69, 0.91)</t>
+    <t>0.8 (0.67, 0.91)</t>
   </si>
   <si>
-    <t>0.79 (0.63, 0.9)</t>
+    <t>0.78 (0.61, 0.9)</t>
   </si>
   <si>
-    <t>0.86 (0.77, 1)</t>
+    <t>0.83 (0.72, 0.98)</t>
   </si>
   <si>
     <t>0.14 (-0.055, 0.3)</t>
   </si>
   <si>
-    <t>0.029 (-0.059, 0.2)</t>
+    <t>0.03 (-0.067, 0.2)</t>
   </si>
   <si>
-    <t>0.022 (-0.1, 0.22)</t>
-  </si>
-  <si>
-    <t>0.33 (0.21, 0.41)</t>
-  </si>
-  <si>
-    <t>0.14 (-0.061, 0.38)</t>
-  </si>
-  <si>
-    <t>0.085 (-0.056, 0.28)</t>
-  </si>
-  <si>
-    <t>0.037 (-0.13, 0.22)</t>
+    <t>0.02 (-0.11, 0.22)</t>
   </si>
   <si>
     <t>0.33 (0.21, 0.42)</t>
+  </si>
+  <si>
+    <t>0.15 (-0.063, 0.37)</t>
+  </si>
+  <si>
+    <t>0.067 (-0.067, 0.28)</t>
+  </si>
+  <si>
+    <t>0.035 (-0.15, 0.22)</t>
+  </si>
+  <si>
+    <t>0.33 (0.21, 0.44)</t>
   </si>
 </sst>
 </file>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>pBV.vs.SUCRA</t>
   </si>
@@ -23,6 +23,9 @@
     <t>pBV.vs.ATE</t>
   </si>
   <si>
+    <t>SUCRA.vs.SUCRAjags</t>
+  </si>
+  <si>
     <t>Spearman rho</t>
   </si>
   <si>
@@ -35,7 +38,7 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.97)</t>
+    <t>0.9 (0.8, 0.96)</t>
   </si>
   <si>
     <t>0.8 (0.67, 0.91)</t>
@@ -44,31 +47,40 @@
     <t>0.78 (0.61, 0.9)</t>
   </si>
   <si>
-    <t>0.83 (0.72, 0.98)</t>
-  </si>
-  <si>
-    <t>0.14 (-0.055, 0.3)</t>
-  </si>
-  <si>
-    <t>0.03 (-0.067, 0.2)</t>
-  </si>
-  <si>
-    <t>0.02 (-0.11, 0.22)</t>
+    <t>0.84 (0.72, 0.94)</t>
+  </si>
+  <si>
+    <t>0.14 (-0.048, 0.32)</t>
+  </si>
+  <si>
+    <t>0.021 (-0.067, 0.2)</t>
+  </si>
+  <si>
+    <t>0.025 (-0.11, 0.21)</t>
   </si>
   <si>
     <t>0.33 (0.21, 0.42)</t>
   </si>
   <si>
-    <t>0.15 (-0.063, 0.37)</t>
-  </si>
-  <si>
-    <t>0.067 (-0.067, 0.28)</t>
-  </si>
-  <si>
-    <t>0.035 (-0.15, 0.22)</t>
-  </si>
-  <si>
-    <t>0.33 (0.21, 0.44)</t>
+    <t>0.14 (-0.092, 0.37)</t>
+  </si>
+  <si>
+    <t>0.072 (-0.067, 0.28)</t>
+  </si>
+  <si>
+    <t>0.028 (-0.17, 0.23)</t>
+  </si>
+  <si>
+    <t>0.98 (0.8, 1)</t>
+  </si>
+  <si>
+    <t>0.94 (0.67, 1)</t>
+  </si>
+  <si>
+    <t>0.94 (0.5, 1)</t>
+  </si>
+  <si>
+    <t>0.81 (0.39, 1)</t>
   </si>
 </sst>
 </file>
@@ -130,61 +142,76 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>pBV.vs.SUCRA</t>
   </si>
@@ -38,49 +38,25 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.96)</t>
+    <t>0.91 (0.89, 0.91)</t>
   </si>
   <si>
-    <t>0.8 (0.67, 0.91)</t>
+    <t>0.85 (0.8, 0.85)</t>
   </si>
   <si>
-    <t>0.78 (0.61, 0.9)</t>
+    <t>0.81 (0.81, 0.83)</t>
   </si>
   <si>
-    <t>0.84 (0.72, 0.94)</t>
+    <t>1 (1, 1)</t>
   </si>
   <si>
-    <t>0.14 (-0.048, 0.32)</t>
+    <t>0.96 (0.96, 0.96)</t>
   </si>
   <si>
-    <t>0.021 (-0.067, 0.2)</t>
+    <t>0.9 (0.9, 0.9)</t>
   </si>
   <si>
-    <t>0.025 (-0.11, 0.21)</t>
-  </si>
-  <si>
-    <t>0.33 (0.21, 0.42)</t>
-  </si>
-  <si>
-    <t>0.14 (-0.092, 0.37)</t>
-  </si>
-  <si>
-    <t>0.072 (-0.067, 0.28)</t>
-  </si>
-  <si>
-    <t>0.028 (-0.17, 0.23)</t>
-  </si>
-  <si>
-    <t>0.98 (0.8, 1)</t>
-  </si>
-  <si>
-    <t>0.94 (0.67, 1)</t>
-  </si>
-  <si>
-    <t>0.94 (0.5, 1)</t>
-  </si>
-  <si>
-    <t>0.81 (0.39, 1)</t>
+    <t>0.67 (0.67, 0.67)</t>
   </si>
 </sst>
 </file>
@@ -154,13 +130,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -171,13 +147,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -188,13 +164,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -205,13 +181,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>pBV.vs.SUCRA</t>
   </si>
@@ -38,25 +38,49 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.91 (0.89, 0.91)</t>
-  </si>
-  <si>
-    <t>0.85 (0.8, 0.85)</t>
-  </si>
-  <si>
-    <t>0.81 (0.81, 0.83)</t>
-  </si>
-  <si>
-    <t>1 (1, 1)</t>
-  </si>
-  <si>
-    <t>0.96 (0.96, 0.96)</t>
-  </si>
-  <si>
-    <t>0.9 (0.9, 0.9)</t>
-  </si>
-  <si>
-    <t>0.67 (0.67, 0.67)</t>
+    <t>0.9 (0.8, 0.97)</t>
+  </si>
+  <si>
+    <t>0.8 (0.69, 0.91)</t>
+  </si>
+  <si>
+    <t>0.79 (0.61, 0.9)</t>
+  </si>
+  <si>
+    <t>0.85 (0.72, 0.94)</t>
+  </si>
+  <si>
+    <t>1 (0.99, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.96, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.95, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.92, 1)</t>
+  </si>
+  <si>
+    <t>0.9 (0.8, 0.96)</t>
+  </si>
+  <si>
+    <t>0.8 (0.66, 0.9)</t>
+  </si>
+  <si>
+    <t>0.89 (0.79, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.94, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.86, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.8, 1)</t>
+  </si>
+  <si>
+    <t>0.96 (0.83, 1)</t>
   </si>
 </sst>
 </file>
@@ -130,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -147,13 +171,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -164,13 +188,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -181,13 +205,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -38,16 +38,16 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.97)</t>
-  </si>
-  <si>
-    <t>0.8 (0.69, 0.91)</t>
-  </si>
-  <si>
-    <t>0.79 (0.61, 0.9)</t>
-  </si>
-  <si>
-    <t>0.85 (0.72, 0.94)</t>
+    <t>0.9 (0.8, 0.95)</t>
+  </si>
+  <si>
+    <t>0.8 (0.67, 0.91)</t>
+  </si>
+  <si>
+    <t>0.77 (0.62, 0.89)</t>
+  </si>
+  <si>
+    <t>0.83 (0.72, 0.94)</t>
   </si>
   <si>
     <t>1 (0.99, 1)</t>
@@ -62,25 +62,25 @@
     <t>1 (0.92, 1)</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.96)</t>
-  </si>
-  <si>
-    <t>0.8 (0.66, 0.9)</t>
-  </si>
-  <si>
-    <t>0.89 (0.79, 1)</t>
+    <t>0.8 (0.68, 0.91)</t>
+  </si>
+  <si>
+    <t>0.79 (0.67, 0.89)</t>
+  </si>
+  <si>
+    <t>0.89 (0.79, 0.94)</t>
   </si>
   <si>
     <t>1 (0.94, 1)</t>
   </si>
   <si>
-    <t>1 (0.86, 1)</t>
-  </si>
-  <si>
-    <t>1 (0.8, 1)</t>
-  </si>
-  <si>
-    <t>0.96 (0.83, 1)</t>
+    <t>0.99 (0.87, 1)</t>
+  </si>
+  <si>
+    <t>0.99 (0.8, 1)</t>
+  </si>
+  <si>
+    <t>0.96 (0.8, 1)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -174,7 +174,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>pBV.vs.SUCRA</t>
   </si>
@@ -38,16 +38,16 @@
     <t>Average Overlap</t>
   </si>
   <si>
-    <t>0.9 (0.8, 0.95)</t>
-  </si>
-  <si>
-    <t>0.8 (0.67, 0.91)</t>
-  </si>
-  <si>
-    <t>0.77 (0.62, 0.89)</t>
-  </si>
-  <si>
-    <t>0.83 (0.72, 0.94)</t>
+    <t>0.9 (0.8, 0.96)</t>
+  </si>
+  <si>
+    <t>0.8 (0.68, 0.91)</t>
+  </si>
+  <si>
+    <t>0.78 (0.61, 0.89)</t>
+  </si>
+  <si>
+    <t>0.85 (0.72, 0.94)</t>
   </si>
   <si>
     <t>1 (0.99, 1)</t>
@@ -56,31 +56,28 @@
     <t>1 (0.96, 1)</t>
   </si>
   <si>
-    <t>1 (0.95, 1)</t>
-  </si>
-  <si>
-    <t>1 (0.92, 1)</t>
-  </si>
-  <si>
-    <t>0.8 (0.68, 0.91)</t>
+    <t>1 (0.9, 1)</t>
+  </si>
+  <si>
+    <t>0.9 (0.81, 0.96)</t>
+  </si>
+  <si>
+    <t>0.81 (0.7, 0.91)</t>
   </si>
   <si>
     <t>0.79 (0.67, 0.89)</t>
   </si>
   <si>
-    <t>0.89 (0.79, 0.94)</t>
-  </si>
-  <si>
-    <t>1 (0.94, 1)</t>
-  </si>
-  <si>
-    <t>0.99 (0.87, 1)</t>
-  </si>
-  <si>
-    <t>0.99 (0.8, 1)</t>
-  </si>
-  <si>
-    <t>0.96 (0.8, 1)</t>
+    <t>0.89 (0.81, 0.97)</t>
+  </si>
+  <si>
+    <t>1 (0.98, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.93, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.91, 1)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +154,7 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -188,7 +185,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -205,13 +202,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/agreement results.xlsx
+++ b/agreement results.xlsx
@@ -41,43 +41,43 @@
     <t>0.9 (0.8, 0.96)</t>
   </si>
   <si>
-    <t>0.8 (0.68, 0.91)</t>
-  </si>
-  <si>
-    <t>0.78 (0.61, 0.89)</t>
-  </si>
-  <si>
-    <t>0.85 (0.72, 0.94)</t>
+    <t>0.8 (0.67, 0.91)</t>
+  </si>
+  <si>
+    <t>0.77 (0.6, 0.9)</t>
+  </si>
+  <si>
+    <t>0.83 (0.72, 0.96)</t>
   </si>
   <si>
     <t>1 (0.99, 1)</t>
   </si>
   <si>
-    <t>1 (0.96, 1)</t>
-  </si>
-  <si>
-    <t>1 (0.9, 1)</t>
-  </si>
-  <si>
-    <t>0.9 (0.81, 0.96)</t>
-  </si>
-  <si>
-    <t>0.81 (0.7, 0.91)</t>
-  </si>
-  <si>
-    <t>0.79 (0.67, 0.89)</t>
-  </si>
-  <si>
-    <t>0.89 (0.81, 0.97)</t>
+    <t>1 (0.95, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.93, 1)</t>
+  </si>
+  <si>
+    <t>1 (0.91, 1)</t>
+  </si>
+  <si>
+    <t>0.9 (0.8, 0.97)</t>
+  </si>
+  <si>
+    <t>0.8 (0.69, 0.91)</t>
+  </si>
+  <si>
+    <t>0.79 (0.65, 0.9)</t>
+  </si>
+  <si>
+    <t>0.88 (0.79, 1)</t>
   </si>
   <si>
     <t>1 (0.98, 1)</t>
   </si>
   <si>
-    <t>1 (0.93, 1)</t>
-  </si>
-  <si>
-    <t>1 (0.91, 1)</t>
+    <t>1 (0.94, 1)</t>
   </si>
 </sst>
 </file>
@@ -154,10 +154,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -171,10 +171,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -185,13 +185,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -202,13 +202,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
